--- a/out/stats/potential_pos_overall_tcs_stats.xlsx
+++ b/out/stats/potential_pos_overall_tcs_stats.xlsx
@@ -566,7 +566,7 @@
         <v>1473.159748833572</v>
       </c>
       <c r="E4">
-        <v>792.1607565520253</v>
+        <v>792.1607565520252</v>
       </c>
       <c r="F4">
         <v>182.1071113383549</v>
@@ -871,7 +871,7 @@
         <v>263.9777784438775</v>
       </c>
       <c r="H3">
-        <v>5.345777777777777</v>
+        <v>5.345777777777778</v>
       </c>
       <c r="I3">
         <v>24.05333333333333</v>
@@ -1338,7 +1338,7 @@
         <v>199.7430731168604</v>
       </c>
       <c r="C3">
-        <v>1030.658414004424</v>
+        <v>1030.658414004425</v>
       </c>
       <c r="D3">
         <v>302.4696428571428</v>
@@ -1573,7 +1573,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>5.345777777777777</v>
+        <v>5.345777777777778</v>
       </c>
       <c r="C3">
         <v>68.82209392592593</v>
@@ -1793,7 +1793,7 @@
         <v>5.345777777777778</v>
       </c>
       <c r="C3">
-        <v>77.54079585185185</v>
+        <v>77.54079585185184</v>
       </c>
       <c r="D3">
         <v>276.7695297052153</v>
@@ -1822,7 +1822,7 @@
         <v>71.88686949969508</v>
       </c>
       <c r="E4">
-        <v>75.81957398492098</v>
+        <v>75.81957398492099</v>
       </c>
       <c r="F4">
         <v>104.7335003987226</v>
@@ -2007,10 +2007,10 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>5.345777777777777</v>
+        <v>5.345777777777778</v>
       </c>
       <c r="C3">
-        <v>88.20729288888887</v>
+        <v>88.20729288888889</v>
       </c>
       <c r="D3">
         <v>308.1068979591836</v>
@@ -2039,7 +2039,7 @@
         <v>80.02629620803356</v>
       </c>
       <c r="E4">
-        <v>85.01978231245205</v>
+        <v>85.01978231245204</v>
       </c>
       <c r="F4">
         <v>104.7335003987226</v>
@@ -2239,7 +2239,7 @@
         <v>409.7273369495402</v>
       </c>
       <c r="C3">
-        <v>951.6881227370025</v>
+        <v>951.6881227370026</v>
       </c>
       <c r="D3">
         <v>1164.333333333333</v>
@@ -2254,7 +2254,7 @@
         <v>478.4145029924882</v>
       </c>
       <c r="H3">
-        <v>5.345777777777776</v>
+        <v>5.345777777777778</v>
       </c>
       <c r="I3">
         <v>24.05333333333333</v>
@@ -2268,7 +2268,7 @@
         <v>685.2704871689195</v>
       </c>
       <c r="C4">
-        <v>2714.292820129757</v>
+        <v>2714.292820129756</v>
       </c>
       <c r="D4">
         <v>1022.8227282053</v>
@@ -2280,7 +2280,7 @@
         <v>68</v>
       </c>
       <c r="G4">
-        <v>341.344852124082</v>
+        <v>341.3448521240821</v>
       </c>
       <c r="H4">
         <v>6.783881401660473</v>
